--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3892.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3892.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.039492830700812</v>
+        <v>1.654738187789917</v>
       </c>
       <c r="B1">
-        <v>2.074362946859319</v>
+        <v>2.300026893615723</v>
       </c>
       <c r="C1">
-        <v>2.088053238541123</v>
+        <v>4.429159641265869</v>
       </c>
       <c r="D1">
-        <v>2.665108043742371</v>
+        <v>4.430465698242188</v>
       </c>
       <c r="E1">
-        <v>4.14776108237069</v>
+        <v>1.63140606880188</v>
       </c>
     </row>
   </sheetData>
